--- a/Code/Results/Cases/Case_0_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.995608622322506</v>
+        <v>1.026490568201804</v>
       </c>
       <c r="D2">
-        <v>1.003917153102014</v>
+        <v>1.027900252038954</v>
       </c>
       <c r="E2">
-        <v>1.00883290899053</v>
+        <v>1.035331548549453</v>
       </c>
       <c r="F2">
-        <v>1.011008083994289</v>
+        <v>1.043065498449459</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041830283691235</v>
+        <v>1.029911313145199</v>
       </c>
       <c r="J2">
-        <v>1.017921476794024</v>
+        <v>1.031653717339011</v>
       </c>
       <c r="K2">
-        <v>1.015322184187883</v>
+        <v>1.030718634338915</v>
       </c>
       <c r="L2">
-        <v>1.020170543803705</v>
+        <v>1.038128458882054</v>
       </c>
       <c r="M2">
-        <v>1.022316159747689</v>
+        <v>1.045840415014454</v>
       </c>
       <c r="N2">
-        <v>1.009896208237174</v>
+        <v>1.01457077155899</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9996814487921579</v>
+        <v>1.027358797952103</v>
       </c>
       <c r="D3">
-        <v>1.007170021007422</v>
+        <v>1.028641028618805</v>
       </c>
       <c r="E3">
-        <v>1.01234202875688</v>
+        <v>1.036137480706631</v>
       </c>
       <c r="F3">
-        <v>1.015165738926066</v>
+        <v>1.044033996961413</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042475605204884</v>
+        <v>1.029981840884453</v>
       </c>
       <c r="J3">
-        <v>1.020180801603351</v>
+        <v>1.032162147637047</v>
       </c>
       <c r="K3">
-        <v>1.017711974784682</v>
+        <v>1.031267414437845</v>
       </c>
       <c r="L3">
-        <v>1.022819389496735</v>
+        <v>1.038743773010692</v>
       </c>
       <c r="M3">
-        <v>1.025608180140043</v>
+        <v>1.046619460540588</v>
       </c>
       <c r="N3">
-        <v>1.010657317721463</v>
+        <v>1.0147406697769</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002266701855996</v>
+        <v>1.027921102406145</v>
       </c>
       <c r="D4">
-        <v>1.009240197982014</v>
+        <v>1.029121116591508</v>
       </c>
       <c r="E4">
-        <v>1.01457552252326</v>
+        <v>1.036659867040349</v>
       </c>
       <c r="F4">
-        <v>1.017812390643652</v>
+        <v>1.044661921992077</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042873407926089</v>
+        <v>1.030026042117505</v>
       </c>
       <c r="J4">
-        <v>1.021612602358588</v>
+        <v>1.032491004217705</v>
       </c>
       <c r="K4">
-        <v>1.019228366633779</v>
+        <v>1.03162260266247</v>
       </c>
       <c r="L4">
-        <v>1.024501159916667</v>
+        <v>1.039142164146712</v>
       </c>
       <c r="M4">
-        <v>1.027700485967756</v>
+        <v>1.047124177144633</v>
       </c>
       <c r="N4">
-        <v>1.011139469241246</v>
+        <v>1.014850515695606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003341922767736</v>
+        <v>1.028157613873335</v>
       </c>
       <c r="D5">
-        <v>1.010102453017885</v>
+        <v>1.029323124872392</v>
       </c>
       <c r="E5">
-        <v>1.015505866638937</v>
+        <v>1.036879690696496</v>
       </c>
       <c r="F5">
-        <v>1.018914943199269</v>
+        <v>1.044926197273333</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043035977925851</v>
+        <v>1.030044280173663</v>
       </c>
       <c r="J5">
-        <v>1.022207507831286</v>
+        <v>1.032629222752566</v>
       </c>
       <c r="K5">
-        <v>1.019858879136154</v>
+        <v>1.031771944227302</v>
       </c>
       <c r="L5">
-        <v>1.025200682907935</v>
+        <v>1.039309704317523</v>
       </c>
       <c r="M5">
-        <v>1.028571303190521</v>
+        <v>1.047336507428002</v>
       </c>
       <c r="N5">
-        <v>1.011339753379139</v>
+        <v>1.014896673021644</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003521786552766</v>
+        <v>1.028197332106577</v>
       </c>
       <c r="D6">
-        <v>1.010246764517003</v>
+        <v>1.029357053416581</v>
       </c>
       <c r="E6">
-        <v>1.015661578004178</v>
+        <v>1.036916612464911</v>
       </c>
       <c r="F6">
-        <v>1.019099484123326</v>
+        <v>1.044970587541318</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043063002345132</v>
+        <v>1.03004732222494</v>
       </c>
       <c r="J6">
-        <v>1.022306988592523</v>
+        <v>1.032652428295729</v>
       </c>
       <c r="K6">
-        <v>1.019964341224152</v>
+        <v>1.031797020493591</v>
       </c>
       <c r="L6">
-        <v>1.025317702642247</v>
+        <v>1.039337838325889</v>
       </c>
       <c r="M6">
-        <v>1.028717009626931</v>
+        <v>1.04737216721831</v>
       </c>
       <c r="N6">
-        <v>1.011373242267025</v>
+        <v>1.014904421742566</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002281114170875</v>
+        <v>1.027924262219441</v>
       </c>
       <c r="D7">
-        <v>1.009251750776439</v>
+        <v>1.029123815133654</v>
       </c>
       <c r="E7">
-        <v>1.014587987327979</v>
+        <v>1.036662803502142</v>
       </c>
       <c r="F7">
-        <v>1.017827162243406</v>
+        <v>1.044665452091919</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042875598445102</v>
+        <v>1.030026287168319</v>
       </c>
       <c r="J7">
-        <v>1.02162057886573</v>
+        <v>1.032492851230827</v>
       </c>
       <c r="K7">
-        <v>1.019236818741987</v>
+        <v>1.031624598093111</v>
       </c>
       <c r="L7">
-        <v>1.024510536138424</v>
+        <v>1.039144402606202</v>
       </c>
       <c r="M7">
-        <v>1.027712156047135</v>
+        <v>1.047127013734879</v>
       </c>
       <c r="N7">
-        <v>1.0111421548458</v>
+        <v>1.014851132538666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9969956710961869</v>
+        <v>1.026783885750828</v>
       </c>
       <c r="D8">
-        <v>1.005023800848454</v>
+        <v>1.02815044340443</v>
       </c>
       <c r="E8">
-        <v>1.010026692218857</v>
+        <v>1.035603730915951</v>
       </c>
       <c r="F8">
-        <v>1.012422429187068</v>
+        <v>1.043392548939361</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042052505559503</v>
+        <v>1.029935445065723</v>
       </c>
       <c r="J8">
-        <v>1.018691382942129</v>
+        <v>1.031825570303083</v>
       </c>
       <c r="K8">
-        <v>1.016136148880497</v>
+        <v>1.030904077557257</v>
       </c>
       <c r="L8">
-        <v>1.021072537100549</v>
+        <v>1.038336356311933</v>
       </c>
       <c r="M8">
-        <v>1.02343671941891</v>
+        <v>1.046103567395207</v>
       </c>
       <c r="N8">
-        <v>1.010155607610824</v>
+        <v>1.01462820773649</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9872799043884641</v>
+        <v>1.024778303412466</v>
       </c>
       <c r="D9">
-        <v>0.9972966227662518</v>
+        <v>1.026441102638928</v>
       </c>
       <c r="E9">
-        <v>1.001691681699203</v>
+        <v>1.033744432826015</v>
       </c>
       <c r="F9">
-        <v>1.002548176915801</v>
+        <v>1.041159115208024</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040447645218735</v>
+        <v>1.029764407070385</v>
       </c>
       <c r="J9">
-        <v>1.013289978950017</v>
+        <v>1.030648780084708</v>
       </c>
       <c r="K9">
-        <v>1.010433713182031</v>
+        <v>1.029635181355723</v>
       </c>
       <c r="L9">
-        <v>1.014757372044702</v>
+        <v>1.036914386152657</v>
       </c>
       <c r="M9">
-        <v>1.015600046572946</v>
+        <v>1.044304954628535</v>
       </c>
       <c r="N9">
-        <v>1.00833506479332</v>
+        <v>1.014234719492239</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9805055263035172</v>
+        <v>1.023443960746389</v>
       </c>
       <c r="D10">
-        <v>0.9919417881121001</v>
+        <v>1.025305585586528</v>
       </c>
       <c r="E10">
-        <v>0.9959159320811575</v>
+        <v>1.032509654467342</v>
       </c>
       <c r="F10">
-        <v>0.9957057441009157</v>
+        <v>1.039676702799082</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039269270963461</v>
+        <v>1.029643047751488</v>
       </c>
       <c r="J10">
-        <v>1.009514531332235</v>
+        <v>1.029863682593621</v>
       </c>
       <c r="K10">
-        <v>1.006458076420589</v>
+        <v>1.028789834304936</v>
       </c>
       <c r="L10">
-        <v>1.01035931924905</v>
+        <v>1.035967770162659</v>
       </c>
       <c r="M10">
-        <v>1.01015296795468</v>
+        <v>1.043109216176805</v>
       </c>
       <c r="N10">
-        <v>1.007061797230804</v>
+        <v>1.01397197277894</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774952173105823</v>
+        <v>1.022866836801791</v>
       </c>
       <c r="D11">
-        <v>0.9895707512581884</v>
+        <v>1.024814874370965</v>
       </c>
       <c r="E11">
-        <v>0.9933584446422511</v>
+        <v>1.031976130138172</v>
       </c>
       <c r="F11">
-        <v>0.9926755860061758</v>
+        <v>1.039036374737424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038732180792471</v>
+        <v>1.02958876598452</v>
       </c>
       <c r="J11">
-        <v>1.007835144702494</v>
+        <v>1.029523606475531</v>
       </c>
       <c r="K11">
-        <v>1.004692064957273</v>
+        <v>1.028423944429272</v>
       </c>
       <c r="L11">
-        <v>1.008406707341992</v>
+        <v>1.035558215230219</v>
       </c>
       <c r="M11">
-        <v>1.007736964657576</v>
+        <v>1.042592258324716</v>
       </c>
       <c r="N11">
-        <v>1.006495283682271</v>
+        <v>1.01385810625985</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9763649043927245</v>
+        <v>1.022652567128421</v>
       </c>
       <c r="D12">
-        <v>0.9886818038578485</v>
+        <v>1.02463275058978</v>
       </c>
       <c r="E12">
-        <v>0.9923995688361187</v>
+        <v>1.031778128823551</v>
       </c>
       <c r="F12">
-        <v>0.9915394109792612</v>
+        <v>1.038798765376878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038528545932583</v>
+        <v>1.029568343645714</v>
       </c>
       <c r="J12">
-        <v>1.007204355676473</v>
+        <v>1.029397269680555</v>
       </c>
       <c r="K12">
-        <v>1.00402910322871</v>
+        <v>1.028288060623182</v>
       </c>
       <c r="L12">
-        <v>1.007673844244968</v>
+        <v>1.035406140114066</v>
       </c>
       <c r="M12">
-        <v>1.006830517625467</v>
+        <v>1.042400359565393</v>
       </c>
       <c r="N12">
-        <v>1.006282479299049</v>
+        <v>1.013815797271415</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9766079200237378</v>
+        <v>1.022698524159272</v>
       </c>
       <c r="D13">
-        <v>0.9888728651422236</v>
+        <v>1.024671810024743</v>
       </c>
       <c r="E13">
-        <v>0.9926056611402827</v>
+        <v>1.031820592905109</v>
       </c>
       <c r="F13">
-        <v>0.9917836145758498</v>
+        <v>1.038849722640002</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038572415163868</v>
+        <v>1.029572736047908</v>
       </c>
       <c r="J13">
-        <v>1.007339983241552</v>
+        <v>1.029424370119198</v>
       </c>
       <c r="K13">
-        <v>1.004171631868468</v>
+        <v>1.028317207054579</v>
       </c>
       <c r="L13">
-        <v>1.007831394234746</v>
+        <v>1.035438758376253</v>
       </c>
       <c r="M13">
-        <v>1.00702536942236</v>
+        <v>1.042441516937618</v>
       </c>
       <c r="N13">
-        <v>1.006328235678506</v>
+        <v>1.013824873314567</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9774020366830757</v>
+        <v>1.022849123158522</v>
       </c>
       <c r="D14">
-        <v>0.989497440889528</v>
+        <v>1.024799816929033</v>
       </c>
       <c r="E14">
-        <v>0.9932793679414906</v>
+        <v>1.031959759741219</v>
       </c>
       <c r="F14">
-        <v>0.9925818895978885</v>
+        <v>1.0390167290293</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038715433252319</v>
+        <v>1.029587083161434</v>
       </c>
       <c r="J14">
-        <v>1.007783147822943</v>
+        <v>1.029513163784282</v>
       </c>
       <c r="K14">
-        <v>1.004637408628622</v>
+        <v>1.028412711734655</v>
       </c>
       <c r="L14">
-        <v>1.0083462851833</v>
+        <v>1.035545643588818</v>
       </c>
       <c r="M14">
-        <v>1.00766222427945</v>
+        <v>1.042576393407746</v>
       </c>
       <c r="N14">
-        <v>1.006477742248094</v>
+        <v>1.013854609266497</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778896899383497</v>
+        <v>1.022941925446625</v>
       </c>
       <c r="D15">
-        <v>0.9898811593882108</v>
+        <v>1.02487870589822</v>
       </c>
       <c r="E15">
-        <v>0.9936932672904374</v>
+        <v>1.032045528046225</v>
       </c>
       <c r="F15">
-        <v>0.9930723071980962</v>
+        <v>1.039119658631533</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038803000231265</v>
+        <v>1.029595888500172</v>
       </c>
       <c r="J15">
-        <v>1.008055260905776</v>
+        <v>1.029567870224557</v>
       </c>
       <c r="K15">
-        <v>1.004923454143771</v>
+        <v>1.028471558537295</v>
       </c>
       <c r="L15">
-        <v>1.008662512352011</v>
+        <v>1.035611506002692</v>
       </c>
       <c r="M15">
-        <v>1.008053401405101</v>
+        <v>1.042659511516979</v>
       </c>
       <c r="N15">
-        <v>1.006569540381143</v>
+        <v>1.013872928740288</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9807036398250247</v>
+        <v>1.023482276487587</v>
       </c>
       <c r="D16">
-        <v>0.9920980116002935</v>
+        <v>1.025338173164997</v>
       </c>
       <c r="E16">
-        <v>0.9960844377909507</v>
+        <v>1.032545086941549</v>
       </c>
       <c r="F16">
-        <v>0.9959053830789342</v>
+        <v>1.039719232406533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039304341664674</v>
+        <v>1.02964661380527</v>
       </c>
       <c r="J16">
-        <v>1.009625022781868</v>
+        <v>1.029886249821731</v>
       </c>
       <c r="K16">
-        <v>1.006574317668739</v>
+        <v>1.028814120503042</v>
       </c>
       <c r="L16">
-        <v>1.01048786383415</v>
+        <v>1.035994958168593</v>
       </c>
       <c r="M16">
-        <v>1.010312066324229</v>
+        <v>1.043143542050357</v>
       </c>
       <c r="N16">
-        <v>1.007099067031815</v>
+        <v>1.013979527751872</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9824477487128043</v>
+        <v>1.023821400842208</v>
       </c>
       <c r="D17">
-        <v>0.9934743105819102</v>
+        <v>1.025626647125903</v>
       </c>
       <c r="E17">
-        <v>0.9975689305549725</v>
+        <v>1.032858754194879</v>
       </c>
       <c r="F17">
-        <v>0.9976641091062395</v>
+        <v>1.040095749717601</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039611562192275</v>
+        <v>1.02967796906285</v>
       </c>
       <c r="J17">
-        <v>1.01059755463215</v>
+        <v>1.030085928658108</v>
       </c>
       <c r="K17">
-        <v>1.007597734480667</v>
+        <v>1.029029041914032</v>
       </c>
       <c r="L17">
-        <v>1.011619719917069</v>
+        <v>1.036235578491045</v>
       </c>
       <c r="M17">
-        <v>1.011713219287961</v>
+        <v>1.043447378135022</v>
       </c>
       <c r="N17">
-        <v>1.007427095421837</v>
+        <v>1.014046369255156</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9834576741615988</v>
+        <v>1.024019269466381</v>
       </c>
       <c r="D18">
-        <v>0.9942720569997814</v>
+        <v>1.025795003081308</v>
       </c>
       <c r="E18">
-        <v>0.9984293831589467</v>
+        <v>1.03304182115281</v>
       </c>
       <c r="F18">
-        <v>0.998683483872834</v>
+        <v>1.040315516907217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039788175697293</v>
+        <v>1.029696090864418</v>
       </c>
       <c r="J18">
-        <v>1.01116053398046</v>
+        <v>1.030202385926709</v>
       </c>
       <c r="K18">
-        <v>1.008190400155051</v>
+        <v>1.029154416416529</v>
       </c>
       <c r="L18">
-        <v>1.012275282680588</v>
+        <v>1.036375960587379</v>
       </c>
       <c r="M18">
-        <v>1.012524980860608</v>
+        <v>1.043624678132809</v>
       </c>
       <c r="N18">
-        <v>1.007616970898797</v>
+        <v>1.014085347532771</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9838007974764942</v>
+        <v>1.024086748218064</v>
       </c>
       <c r="D19">
-        <v>0.9945432264517927</v>
+        <v>1.025852423999184</v>
       </c>
       <c r="E19">
-        <v>0.9987218669634474</v>
+        <v>1.033104260887938</v>
       </c>
       <c r="F19">
-        <v>0.9990299838797764</v>
+        <v>1.040390477402978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039847961210674</v>
+        <v>1.02970224155401</v>
       </c>
       <c r="J19">
-        <v>1.011351777613078</v>
+        <v>1.030242092770588</v>
       </c>
       <c r="K19">
-        <v>1.00839176722753</v>
+        <v>1.029197168298276</v>
       </c>
       <c r="L19">
-        <v>1.012498037071063</v>
+        <v>1.036423832698087</v>
       </c>
       <c r="M19">
-        <v>1.012800848639291</v>
+        <v>1.043685145958621</v>
       </c>
       <c r="N19">
-        <v>1.00768146903863</v>
+        <v>1.014098636537178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9822613902028949</v>
+        <v>1.023785009468791</v>
       </c>
       <c r="D20">
-        <v>0.9933271691585105</v>
+        <v>1.025595686867433</v>
       </c>
       <c r="E20">
-        <v>0.9974102227825283</v>
+        <v>1.032825089261066</v>
       </c>
       <c r="F20">
-        <v>0.9974760863486677</v>
+        <v>1.040055337341448</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039578868230889</v>
+        <v>1.029674622229357</v>
       </c>
       <c r="J20">
-        <v>1.010493656121275</v>
+        <v>1.030064506243113</v>
       </c>
       <c r="K20">
-        <v>1.007488375912301</v>
+        <v>1.029005981373521</v>
       </c>
       <c r="L20">
-        <v>1.011498763672958</v>
+        <v>1.03620975885363</v>
       </c>
       <c r="M20">
-        <v>1.011563461393227</v>
+        <v>1.043414771366448</v>
       </c>
       <c r="N20">
-        <v>1.007392052551419</v>
+        <v>1.014039198746974</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9771685294333325</v>
+        <v>1.022804772738931</v>
       </c>
       <c r="D21">
-        <v>0.9893137494332346</v>
+        <v>1.024762117981104</v>
       </c>
       <c r="E21">
-        <v>0.9930812275304434</v>
+        <v>1.031918773777128</v>
       </c>
       <c r="F21">
-        <v>0.9923471155562839</v>
+        <v>1.038967543254576</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038673433009041</v>
+        <v>1.029582865457562</v>
       </c>
       <c r="J21">
-        <v>1.007652842282585</v>
+        <v>1.029487016733211</v>
       </c>
       <c r="K21">
-        <v>1.004500444307512</v>
+        <v>1.028384587314203</v>
       </c>
       <c r="L21">
-        <v>1.008194874527312</v>
+        <v>1.035514167116518</v>
       </c>
       <c r="M21">
-        <v>1.007474939289702</v>
+        <v>1.042536672258031</v>
       </c>
       <c r="N21">
-        <v>1.006433782675376</v>
+        <v>1.01384585314973</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9738958298519441</v>
+        <v>1.022189037440667</v>
       </c>
       <c r="D22">
-        <v>0.9867424852620803</v>
+        <v>1.024238878497201</v>
       </c>
       <c r="E22">
-        <v>0.9903076353556509</v>
+        <v>1.031349941192854</v>
       </c>
       <c r="F22">
-        <v>0.9890604893497891</v>
+        <v>1.038284975931734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038080166773445</v>
+        <v>1.029523672237197</v>
       </c>
       <c r="J22">
-        <v>1.005826110358241</v>
+        <v>1.02912382618273</v>
       </c>
       <c r="K22">
-        <v>1.002581231872101</v>
+        <v>1.027994031620092</v>
       </c>
       <c r="L22">
-        <v>1.006073576559505</v>
+        <v>1.035077121466067</v>
       </c>
       <c r="M22">
-        <v>1.004851820352044</v>
+        <v>1.041985285432282</v>
       </c>
       <c r="N22">
-        <v>1.005817481790813</v>
+        <v>1.013724208937868</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9756376496737287</v>
+        <v>1.022515395069813</v>
       </c>
       <c r="D23">
-        <v>0.9881102286989153</v>
+        <v>1.024516175715823</v>
       </c>
       <c r="E23">
-        <v>0.9917830225575889</v>
+        <v>1.0316513943876</v>
       </c>
       <c r="F23">
-        <v>0.9908088366095551</v>
+        <v>1.03864668717535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038396977663196</v>
+        <v>1.029555193865274</v>
       </c>
       <c r="J23">
-        <v>1.00679844564698</v>
+        <v>1.029316369439392</v>
       </c>
       <c r="K23">
-        <v>1.003602592858669</v>
+        <v>1.028201058933474</v>
       </c>
       <c r="L23">
-        <v>1.007202404343678</v>
+        <v>1.035308778706321</v>
       </c>
       <c r="M23">
-        <v>1.006247507238065</v>
+        <v>1.042277518323004</v>
       </c>
       <c r="N23">
-        <v>1.006145535910161</v>
+        <v>1.01378870228495</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9823456203672659</v>
+        <v>1.023801452969087</v>
       </c>
       <c r="D24">
-        <v>0.9933936715377909</v>
+        <v>1.025609676185406</v>
       </c>
       <c r="E24">
-        <v>0.9974819527344628</v>
+        <v>1.0328403006554</v>
       </c>
       <c r="F24">
-        <v>0.9975610656664137</v>
+        <v>1.040073597488284</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039593649199654</v>
+        <v>1.029676135036005</v>
       </c>
       <c r="J24">
-        <v>1.010540616597932</v>
+        <v>1.030074186147601</v>
       </c>
       <c r="K24">
-        <v>1.007537803535083</v>
+        <v>1.029016401394558</v>
       </c>
       <c r="L24">
-        <v>1.01155343287671</v>
+        <v>1.036221425536631</v>
       </c>
       <c r="M24">
-        <v>1.011631147528838</v>
+        <v>1.043429504722173</v>
       </c>
       <c r="N24">
-        <v>1.007407891414762</v>
+        <v>1.014042438819573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9898419831835149</v>
+        <v>1.025296322749414</v>
       </c>
       <c r="D25">
-        <v>0.9993288152638895</v>
+        <v>1.026882302860412</v>
       </c>
       <c r="E25">
-        <v>1.003883629427277</v>
+        <v>1.034224275323598</v>
       </c>
       <c r="F25">
-        <v>1.005144821569968</v>
+        <v>1.041735365334634</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040881302241059</v>
+        <v>1.029809919840894</v>
       </c>
       <c r="J25">
-        <v>1.014716108619826</v>
+        <v>1.030953114425114</v>
       </c>
       <c r="K25">
-        <v>1.011937559453904</v>
+        <v>1.029963124217217</v>
       </c>
       <c r="L25">
-        <v>1.016421954727507</v>
+        <v>1.037281764910125</v>
       </c>
       <c r="M25">
-        <v>1.017663792377924</v>
+        <v>1.044769357542342</v>
       </c>
       <c r="N25">
-        <v>1.008815883668458</v>
+        <v>1.014336521833749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026490568201804</v>
+        <v>0.9956086223225057</v>
       </c>
       <c r="D2">
-        <v>1.027900252038954</v>
+        <v>1.003917153102014</v>
       </c>
       <c r="E2">
-        <v>1.035331548549453</v>
+        <v>1.00883290899053</v>
       </c>
       <c r="F2">
-        <v>1.043065498449459</v>
+        <v>1.011008083994289</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029911313145199</v>
+        <v>1.041830283691235</v>
       </c>
       <c r="J2">
-        <v>1.031653717339011</v>
+        <v>1.017921476794024</v>
       </c>
       <c r="K2">
-        <v>1.030718634338915</v>
+        <v>1.015322184187883</v>
       </c>
       <c r="L2">
-        <v>1.038128458882054</v>
+        <v>1.020170543803704</v>
       </c>
       <c r="M2">
-        <v>1.045840415014454</v>
+        <v>1.022316159747688</v>
       </c>
       <c r="N2">
-        <v>1.01457077155899</v>
+        <v>1.009896208237174</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027358797952103</v>
+        <v>0.9996814487921576</v>
       </c>
       <c r="D3">
-        <v>1.028641028618805</v>
+        <v>1.007170021007422</v>
       </c>
       <c r="E3">
-        <v>1.036137480706631</v>
+        <v>1.012342028756879</v>
       </c>
       <c r="F3">
-        <v>1.044033996961413</v>
+        <v>1.015165738926065</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029981840884453</v>
+        <v>1.042475605204884</v>
       </c>
       <c r="J3">
-        <v>1.032162147637047</v>
+        <v>1.02018080160335</v>
       </c>
       <c r="K3">
-        <v>1.031267414437845</v>
+        <v>1.017711974784681</v>
       </c>
       <c r="L3">
-        <v>1.038743773010692</v>
+        <v>1.022819389496734</v>
       </c>
       <c r="M3">
-        <v>1.046619460540588</v>
+        <v>1.025608180140041</v>
       </c>
       <c r="N3">
-        <v>1.0147406697769</v>
+        <v>1.010657317721462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027921102406145</v>
+        <v>1.002266701855995</v>
       </c>
       <c r="D4">
-        <v>1.029121116591508</v>
+        <v>1.009240197982012</v>
       </c>
       <c r="E4">
-        <v>1.036659867040349</v>
+        <v>1.014575522523259</v>
       </c>
       <c r="F4">
-        <v>1.044661921992077</v>
+        <v>1.017812390643651</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030026042117505</v>
+        <v>1.042873407926088</v>
       </c>
       <c r="J4">
-        <v>1.032491004217705</v>
+        <v>1.021612602358587</v>
       </c>
       <c r="K4">
-        <v>1.03162260266247</v>
+        <v>1.019228366633777</v>
       </c>
       <c r="L4">
-        <v>1.039142164146712</v>
+        <v>1.024501159916666</v>
       </c>
       <c r="M4">
-        <v>1.047124177144633</v>
+        <v>1.027700485967755</v>
       </c>
       <c r="N4">
-        <v>1.014850515695606</v>
+        <v>1.011139469241246</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028157613873335</v>
+        <v>1.003341922767736</v>
       </c>
       <c r="D5">
-        <v>1.029323124872392</v>
+        <v>1.010102453017885</v>
       </c>
       <c r="E5">
-        <v>1.036879690696496</v>
+        <v>1.015505866638938</v>
       </c>
       <c r="F5">
-        <v>1.044926197273333</v>
+        <v>1.018914943199269</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030044280173663</v>
+        <v>1.043035977925852</v>
       </c>
       <c r="J5">
-        <v>1.032629222752566</v>
+        <v>1.022207507831286</v>
       </c>
       <c r="K5">
-        <v>1.031771944227302</v>
+        <v>1.019858879136154</v>
       </c>
       <c r="L5">
-        <v>1.039309704317523</v>
+        <v>1.025200682907935</v>
       </c>
       <c r="M5">
-        <v>1.047336507428002</v>
+        <v>1.028571303190521</v>
       </c>
       <c r="N5">
-        <v>1.014896673021644</v>
+        <v>1.011339753379139</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028197332106577</v>
+        <v>1.003521786552765</v>
       </c>
       <c r="D6">
-        <v>1.029357053416581</v>
+        <v>1.010246764517002</v>
       </c>
       <c r="E6">
-        <v>1.036916612464911</v>
+        <v>1.015661578004176</v>
       </c>
       <c r="F6">
-        <v>1.044970587541318</v>
+        <v>1.019099484123325</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03004732222494</v>
+        <v>1.043063002345132</v>
       </c>
       <c r="J6">
-        <v>1.032652428295729</v>
+        <v>1.022306988592522</v>
       </c>
       <c r="K6">
-        <v>1.031797020493591</v>
+        <v>1.019964341224151</v>
       </c>
       <c r="L6">
-        <v>1.039337838325889</v>
+        <v>1.025317702642246</v>
       </c>
       <c r="M6">
-        <v>1.04737216721831</v>
+        <v>1.02871700962693</v>
       </c>
       <c r="N6">
-        <v>1.014904421742566</v>
+        <v>1.011373242267025</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027924262219441</v>
+        <v>1.002281114170874</v>
       </c>
       <c r="D7">
-        <v>1.029123815133654</v>
+        <v>1.009251750776438</v>
       </c>
       <c r="E7">
-        <v>1.036662803502142</v>
+        <v>1.014587987327979</v>
       </c>
       <c r="F7">
-        <v>1.044665452091919</v>
+        <v>1.017827162243405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030026287168319</v>
+        <v>1.042875598445102</v>
       </c>
       <c r="J7">
-        <v>1.032492851230827</v>
+        <v>1.021620578865729</v>
       </c>
       <c r="K7">
-        <v>1.031624598093111</v>
+        <v>1.019236818741986</v>
       </c>
       <c r="L7">
-        <v>1.039144402606202</v>
+        <v>1.024510536138423</v>
       </c>
       <c r="M7">
-        <v>1.047127013734879</v>
+        <v>1.027712156047134</v>
       </c>
       <c r="N7">
-        <v>1.014851132538666</v>
+        <v>1.0111421548458</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026783885750828</v>
+        <v>0.9969956710961864</v>
       </c>
       <c r="D8">
-        <v>1.02815044340443</v>
+        <v>1.005023800848453</v>
       </c>
       <c r="E8">
-        <v>1.035603730915951</v>
+        <v>1.010026692218857</v>
       </c>
       <c r="F8">
-        <v>1.043392548939361</v>
+        <v>1.012422429187068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029935445065723</v>
+        <v>1.042052505559503</v>
       </c>
       <c r="J8">
-        <v>1.031825570303083</v>
+        <v>1.018691382942128</v>
       </c>
       <c r="K8">
-        <v>1.030904077557257</v>
+        <v>1.016136148880497</v>
       </c>
       <c r="L8">
-        <v>1.038336356311933</v>
+        <v>1.021072537100548</v>
       </c>
       <c r="M8">
-        <v>1.046103567395207</v>
+        <v>1.023436719418909</v>
       </c>
       <c r="N8">
-        <v>1.01462820773649</v>
+        <v>1.010155607610823</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024778303412466</v>
+        <v>0.9872799043884639</v>
       </c>
       <c r="D9">
-        <v>1.026441102638928</v>
+        <v>0.9972966227662516</v>
       </c>
       <c r="E9">
-        <v>1.033744432826015</v>
+        <v>1.001691681699203</v>
       </c>
       <c r="F9">
-        <v>1.041159115208024</v>
+        <v>1.002548176915801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029764407070385</v>
+        <v>1.040447645218735</v>
       </c>
       <c r="J9">
-        <v>1.030648780084708</v>
+        <v>1.013289978950017</v>
       </c>
       <c r="K9">
-        <v>1.029635181355723</v>
+        <v>1.010433713182031</v>
       </c>
       <c r="L9">
-        <v>1.036914386152657</v>
+        <v>1.014757372044701</v>
       </c>
       <c r="M9">
-        <v>1.044304954628535</v>
+        <v>1.015600046572945</v>
       </c>
       <c r="N9">
-        <v>1.014234719492239</v>
+        <v>1.00833506479332</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023443960746389</v>
+        <v>0.9805055263035164</v>
       </c>
       <c r="D10">
-        <v>1.025305585586528</v>
+        <v>0.9919417881120995</v>
       </c>
       <c r="E10">
-        <v>1.032509654467342</v>
+        <v>0.9959159320811567</v>
       </c>
       <c r="F10">
-        <v>1.039676702799082</v>
+        <v>0.9957057441009151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029643047751488</v>
+        <v>1.039269270963461</v>
       </c>
       <c r="J10">
-        <v>1.029863682593621</v>
+        <v>1.009514531332234</v>
       </c>
       <c r="K10">
-        <v>1.028789834304936</v>
+        <v>1.006458076420588</v>
       </c>
       <c r="L10">
-        <v>1.035967770162659</v>
+        <v>1.01035931924905</v>
       </c>
       <c r="M10">
-        <v>1.043109216176805</v>
+        <v>1.01015296795468</v>
       </c>
       <c r="N10">
-        <v>1.01397197277894</v>
+        <v>1.007061797230803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022866836801791</v>
+        <v>0.9774952173105825</v>
       </c>
       <c r="D11">
-        <v>1.024814874370965</v>
+        <v>0.9895707512581886</v>
       </c>
       <c r="E11">
-        <v>1.031976130138172</v>
+        <v>0.9933584446422516</v>
       </c>
       <c r="F11">
-        <v>1.039036374737424</v>
+        <v>0.9926755860061762</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02958876598452</v>
+        <v>1.038732180792471</v>
       </c>
       <c r="J11">
-        <v>1.029523606475531</v>
+        <v>1.007835144702494</v>
       </c>
       <c r="K11">
-        <v>1.028423944429272</v>
+        <v>1.004692064957274</v>
       </c>
       <c r="L11">
-        <v>1.035558215230219</v>
+        <v>1.008406707341992</v>
       </c>
       <c r="M11">
-        <v>1.042592258324716</v>
+        <v>1.007736964657576</v>
       </c>
       <c r="N11">
-        <v>1.01385810625985</v>
+        <v>1.006495283682271</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022652567128421</v>
+        <v>0.9763649043927243</v>
       </c>
       <c r="D12">
-        <v>1.02463275058978</v>
+        <v>0.9886818038578482</v>
       </c>
       <c r="E12">
-        <v>1.031778128823551</v>
+        <v>0.9923995688361185</v>
       </c>
       <c r="F12">
-        <v>1.038798765376878</v>
+        <v>0.991539410979261</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029568343645714</v>
+        <v>1.038528545932583</v>
       </c>
       <c r="J12">
-        <v>1.029397269680555</v>
+        <v>1.007204355676473</v>
       </c>
       <c r="K12">
-        <v>1.028288060623182</v>
+        <v>1.00402910322871</v>
       </c>
       <c r="L12">
-        <v>1.035406140114066</v>
+        <v>1.007673844244968</v>
       </c>
       <c r="M12">
-        <v>1.042400359565393</v>
+        <v>1.006830517625466</v>
       </c>
       <c r="N12">
-        <v>1.013815797271415</v>
+        <v>1.006282479299049</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022698524159272</v>
+        <v>0.9766079200237378</v>
       </c>
       <c r="D13">
-        <v>1.024671810024743</v>
+        <v>0.9888728651422235</v>
       </c>
       <c r="E13">
-        <v>1.031820592905109</v>
+        <v>0.9926056611402824</v>
       </c>
       <c r="F13">
-        <v>1.038849722640002</v>
+        <v>0.9917836145758494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029572736047908</v>
+        <v>1.038572415163868</v>
       </c>
       <c r="J13">
-        <v>1.029424370119198</v>
+        <v>1.007339983241552</v>
       </c>
       <c r="K13">
-        <v>1.028317207054579</v>
+        <v>1.004171631868468</v>
       </c>
       <c r="L13">
-        <v>1.035438758376253</v>
+        <v>1.007831394234746</v>
       </c>
       <c r="M13">
-        <v>1.042441516937618</v>
+        <v>1.00702536942236</v>
       </c>
       <c r="N13">
-        <v>1.013824873314567</v>
+        <v>1.006328235678506</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022849123158522</v>
+        <v>0.9774020366830748</v>
       </c>
       <c r="D14">
-        <v>1.024799816929033</v>
+        <v>0.9894974408895272</v>
       </c>
       <c r="E14">
-        <v>1.031959759741219</v>
+        <v>0.9932793679414897</v>
       </c>
       <c r="F14">
-        <v>1.0390167290293</v>
+        <v>0.9925818895978878</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029587083161434</v>
+        <v>1.038715433252319</v>
       </c>
       <c r="J14">
-        <v>1.029513163784282</v>
+        <v>1.007783147822942</v>
       </c>
       <c r="K14">
-        <v>1.028412711734655</v>
+        <v>1.004637408628621</v>
       </c>
       <c r="L14">
-        <v>1.035545643588818</v>
+        <v>1.008346285183299</v>
       </c>
       <c r="M14">
-        <v>1.042576393407746</v>
+        <v>1.00766222427945</v>
       </c>
       <c r="N14">
-        <v>1.013854609266497</v>
+        <v>1.006477742248094</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022941925446625</v>
+        <v>0.9778896899383491</v>
       </c>
       <c r="D15">
-        <v>1.02487870589822</v>
+        <v>0.9898811593882101</v>
       </c>
       <c r="E15">
-        <v>1.032045528046225</v>
+        <v>0.9936932672904368</v>
       </c>
       <c r="F15">
-        <v>1.039119658631533</v>
+        <v>0.9930723071980956</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029595888500172</v>
+        <v>1.038803000231265</v>
       </c>
       <c r="J15">
-        <v>1.029567870224557</v>
+        <v>1.008055260905776</v>
       </c>
       <c r="K15">
-        <v>1.028471558537295</v>
+        <v>1.00492345414377</v>
       </c>
       <c r="L15">
-        <v>1.035611506002692</v>
+        <v>1.008662512352011</v>
       </c>
       <c r="M15">
-        <v>1.042659511516979</v>
+        <v>1.0080534014051</v>
       </c>
       <c r="N15">
-        <v>1.013872928740288</v>
+        <v>1.006569540381143</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023482276487587</v>
+        <v>0.9807036398250238</v>
       </c>
       <c r="D16">
-        <v>1.025338173164997</v>
+        <v>0.9920980116002929</v>
       </c>
       <c r="E16">
-        <v>1.032545086941549</v>
+        <v>0.9960844377909492</v>
       </c>
       <c r="F16">
-        <v>1.039719232406533</v>
+        <v>0.9959053830789329</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02964661380527</v>
+        <v>1.039304341664673</v>
       </c>
       <c r="J16">
-        <v>1.029886249821731</v>
+        <v>1.009625022781867</v>
       </c>
       <c r="K16">
-        <v>1.028814120503042</v>
+        <v>1.006574317668738</v>
       </c>
       <c r="L16">
-        <v>1.035994958168593</v>
+        <v>1.010487863834149</v>
       </c>
       <c r="M16">
-        <v>1.043143542050357</v>
+        <v>1.010312066324228</v>
       </c>
       <c r="N16">
-        <v>1.013979527751872</v>
+        <v>1.007099067031814</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023821400842208</v>
+        <v>0.9824477487128035</v>
       </c>
       <c r="D17">
-        <v>1.025626647125903</v>
+        <v>0.9934743105819094</v>
       </c>
       <c r="E17">
-        <v>1.032858754194879</v>
+        <v>0.9975689305549718</v>
       </c>
       <c r="F17">
-        <v>1.040095749717601</v>
+        <v>0.9976641091062387</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02967796906285</v>
+        <v>1.039611562192275</v>
       </c>
       <c r="J17">
-        <v>1.030085928658108</v>
+        <v>1.01059755463215</v>
       </c>
       <c r="K17">
-        <v>1.029029041914032</v>
+        <v>1.007597734480666</v>
       </c>
       <c r="L17">
-        <v>1.036235578491045</v>
+        <v>1.011619719917068</v>
       </c>
       <c r="M17">
-        <v>1.043447378135022</v>
+        <v>1.011713219287961</v>
       </c>
       <c r="N17">
-        <v>1.014046369255156</v>
+        <v>1.007427095421837</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024019269466381</v>
+        <v>0.9834576741615989</v>
       </c>
       <c r="D18">
-        <v>1.025795003081308</v>
+        <v>0.9942720569997813</v>
       </c>
       <c r="E18">
-        <v>1.03304182115281</v>
+        <v>0.9984293831589467</v>
       </c>
       <c r="F18">
-        <v>1.040315516907217</v>
+        <v>0.9986834838728341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029696090864418</v>
+        <v>1.039788175697293</v>
       </c>
       <c r="J18">
-        <v>1.030202385926709</v>
+        <v>1.01116053398046</v>
       </c>
       <c r="K18">
-        <v>1.029154416416529</v>
+        <v>1.008190400155051</v>
       </c>
       <c r="L18">
-        <v>1.036375960587379</v>
+        <v>1.012275282680588</v>
       </c>
       <c r="M18">
-        <v>1.043624678132809</v>
+        <v>1.012524980860608</v>
       </c>
       <c r="N18">
-        <v>1.014085347532771</v>
+        <v>1.007616970898797</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024086748218064</v>
+        <v>0.983800797476494</v>
       </c>
       <c r="D19">
-        <v>1.025852423999184</v>
+        <v>0.9945432264517926</v>
       </c>
       <c r="E19">
-        <v>1.033104260887938</v>
+        <v>0.9987218669634472</v>
       </c>
       <c r="F19">
-        <v>1.040390477402978</v>
+        <v>0.999029983879776</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02970224155401</v>
+        <v>1.039847961210673</v>
       </c>
       <c r="J19">
-        <v>1.030242092770588</v>
+        <v>1.011351777613078</v>
       </c>
       <c r="K19">
-        <v>1.029197168298276</v>
+        <v>1.00839176722753</v>
       </c>
       <c r="L19">
-        <v>1.036423832698087</v>
+        <v>1.012498037071063</v>
       </c>
       <c r="M19">
-        <v>1.043685145958621</v>
+        <v>1.012800848639291</v>
       </c>
       <c r="N19">
-        <v>1.014098636537178</v>
+        <v>1.007681469038629</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023785009468791</v>
+        <v>0.9822613902028949</v>
       </c>
       <c r="D20">
-        <v>1.025595686867433</v>
+        <v>0.9933271691585104</v>
       </c>
       <c r="E20">
-        <v>1.032825089261066</v>
+        <v>0.9974102227825278</v>
       </c>
       <c r="F20">
-        <v>1.040055337341448</v>
+        <v>0.9974760863486674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029674622229357</v>
+        <v>1.039578868230889</v>
       </c>
       <c r="J20">
-        <v>1.030064506243113</v>
+        <v>1.010493656121275</v>
       </c>
       <c r="K20">
-        <v>1.029005981373521</v>
+        <v>1.007488375912301</v>
       </c>
       <c r="L20">
-        <v>1.03620975885363</v>
+        <v>1.011498763672957</v>
       </c>
       <c r="M20">
-        <v>1.043414771366448</v>
+        <v>1.011563461393227</v>
       </c>
       <c r="N20">
-        <v>1.014039198746974</v>
+        <v>1.007392052551418</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022804772738931</v>
+        <v>0.9771685294333319</v>
       </c>
       <c r="D21">
-        <v>1.024762117981104</v>
+        <v>0.9893137494332336</v>
       </c>
       <c r="E21">
-        <v>1.031918773777128</v>
+        <v>0.9930812275304423</v>
       </c>
       <c r="F21">
-        <v>1.038967543254576</v>
+        <v>0.9923471155562829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029582865457562</v>
+        <v>1.038673433009041</v>
       </c>
       <c r="J21">
-        <v>1.029487016733211</v>
+        <v>1.007652842282585</v>
       </c>
       <c r="K21">
-        <v>1.028384587314203</v>
+        <v>1.004500444307511</v>
       </c>
       <c r="L21">
-        <v>1.035514167116518</v>
+        <v>1.008194874527311</v>
       </c>
       <c r="M21">
-        <v>1.042536672258031</v>
+        <v>1.007474939289701</v>
       </c>
       <c r="N21">
-        <v>1.01384585314973</v>
+        <v>1.006433782675376</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022189037440667</v>
+        <v>0.9738958298519439</v>
       </c>
       <c r="D22">
-        <v>1.024238878497201</v>
+        <v>0.9867424852620802</v>
       </c>
       <c r="E22">
-        <v>1.031349941192854</v>
+        <v>0.9903076353556509</v>
       </c>
       <c r="F22">
-        <v>1.038284975931734</v>
+        <v>0.9890604893497889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029523672237197</v>
+        <v>1.038080166773445</v>
       </c>
       <c r="J22">
-        <v>1.02912382618273</v>
+        <v>1.005826110358241</v>
       </c>
       <c r="K22">
-        <v>1.027994031620092</v>
+        <v>1.002581231872101</v>
       </c>
       <c r="L22">
-        <v>1.035077121466067</v>
+        <v>1.006073576559504</v>
       </c>
       <c r="M22">
-        <v>1.041985285432282</v>
+        <v>1.004851820352044</v>
       </c>
       <c r="N22">
-        <v>1.013724208937868</v>
+        <v>1.005817481790813</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022515395069813</v>
+        <v>0.9756376496737289</v>
       </c>
       <c r="D23">
-        <v>1.024516175715823</v>
+        <v>0.9881102286989155</v>
       </c>
       <c r="E23">
-        <v>1.0316513943876</v>
+        <v>0.9917830225575889</v>
       </c>
       <c r="F23">
-        <v>1.03864668717535</v>
+        <v>0.990808836609555</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029555193865274</v>
+        <v>1.038396977663196</v>
       </c>
       <c r="J23">
-        <v>1.029316369439392</v>
+        <v>1.00679844564698</v>
       </c>
       <c r="K23">
-        <v>1.028201058933474</v>
+        <v>1.003602592858669</v>
       </c>
       <c r="L23">
-        <v>1.035308778706321</v>
+        <v>1.007202404343678</v>
       </c>
       <c r="M23">
-        <v>1.042277518323004</v>
+        <v>1.006247507238065</v>
       </c>
       <c r="N23">
-        <v>1.01378870228495</v>
+        <v>1.006145535910161</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023801452969087</v>
+        <v>0.9823456203672659</v>
       </c>
       <c r="D24">
-        <v>1.025609676185406</v>
+        <v>0.9933936715377911</v>
       </c>
       <c r="E24">
-        <v>1.0328403006554</v>
+        <v>0.9974819527344626</v>
       </c>
       <c r="F24">
-        <v>1.040073597488284</v>
+        <v>0.9975610656664138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029676135036005</v>
+        <v>1.039593649199654</v>
       </c>
       <c r="J24">
-        <v>1.030074186147601</v>
+        <v>1.010540616597932</v>
       </c>
       <c r="K24">
-        <v>1.029016401394558</v>
+        <v>1.007537803535083</v>
       </c>
       <c r="L24">
-        <v>1.036221425536631</v>
+        <v>1.01155343287671</v>
       </c>
       <c r="M24">
-        <v>1.043429504722173</v>
+        <v>1.011631147528838</v>
       </c>
       <c r="N24">
-        <v>1.014042438819573</v>
+        <v>1.007407891414762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025296322749414</v>
+        <v>0.9898419831835144</v>
       </c>
       <c r="D25">
-        <v>1.026882302860412</v>
+        <v>0.9993288152638891</v>
       </c>
       <c r="E25">
-        <v>1.034224275323598</v>
+        <v>1.003883629427276</v>
       </c>
       <c r="F25">
-        <v>1.041735365334634</v>
+        <v>1.005144821569967</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029809919840894</v>
+        <v>1.040881302241059</v>
       </c>
       <c r="J25">
-        <v>1.030953114425114</v>
+        <v>1.014716108619825</v>
       </c>
       <c r="K25">
-        <v>1.029963124217217</v>
+        <v>1.011937559453903</v>
       </c>
       <c r="L25">
-        <v>1.037281764910125</v>
+        <v>1.016421954727506</v>
       </c>
       <c r="M25">
-        <v>1.044769357542342</v>
+        <v>1.017663792377923</v>
       </c>
       <c r="N25">
-        <v>1.014336521833749</v>
+        <v>1.008815883668458</v>
       </c>
     </row>
   </sheetData>
